--- a/biology/Zoologie/Hydrodynastes_gigas/Hydrodynastes_gigas.xlsx
+++ b/biology/Zoologie/Hydrodynastes_gigas/Hydrodynastes_gigas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrodynastes gigas, ou Ñacaniná, est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrodynastes gigas, ou Ñacaniná, est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Suriname ;
 en Guyane ;
 au Brésil ;
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La ñacaniná est une espèce agile et de caractéristique générale très agressive. Quand elle est perturbée elle se fâche en dilatant le cou, en levant la tête et le tiers antérieur du corps d'une façon qui rappelle le fameux cobra de l'Inde.
 C'est un serpent opistoglyphe venimeux. Les adultes ont une taille qui dépasse souvent 2 mètres, exceptionnellement près de 3 mètres.
@@ -581,7 +597,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est dépendante des milieux aquatiques où elle se révèle bonne nageuse, pouvant rester immergée pendant plusieurs minutes. Elle se déplace avec agilité aussi bien en eau de surface, qu'en eau profonde (marais et étangs).
 Il semble que la ñacaniná ait des habitudes plutôt diurnes. En période de crues, on peut l'observer sur des terrains non inondés. Aux heures de plus haute température elle prend le soleil enroulée ou semi-étirée sur des arbustes ou au sol, mais toujours près de l'eau.
@@ -613,7 +631,9 @@
           <t>Régime</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle se nourrit de poissons, batraciens et oiseaux et parfois de rongeurs voire de petits ophidiens. Lorsque les proies sont importantes, elle peut les tuer par constriction en s'enroulant autour d'elles, ou également les submerger pour les noyer.
 </t>
@@ -644,7 +664,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Duméril, Bibron &amp; Duméril, 1854 : Erpétologie générale ou histoire naturelle complète des reptiles. Tome septième. Première partie, p. 1-780 (texte intégral).</t>
         </is>
